--- a/総合テスト/注文機能/ST-O-010_結果.xlsx
+++ b/総合テスト/注文機能/ST-O-010_結果.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryotaro.toki\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryotaro.toki\Documents\AVANT\研修\workspace\Popcorn\総合テスト\注文機能\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BD61418-CE03-49B8-987B-3D66B058E9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D12F9BC-5B1F-4237-8C8E-E3760D34D596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{4BC7772F-6E0E-42C7-B56F-5385516317EF}"/>
   </bookViews>
@@ -102,22 +102,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
+      <xdr:colOff>527050</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>41303</xdr:rowOff>
+      <xdr:rowOff>155443</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5E57C32-1095-4CA0-0355-44DD2F7C994E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{422617A5-80C9-3BA8-9E68-70E49AD57ED1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -139,8 +139,158 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="660400" y="0"/>
-          <a:ext cx="7772400" cy="4156103"/>
+          <a:off x="679450" y="247650"/>
+          <a:ext cx="7772400" cy="4022593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>189798</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5742EF4F-B037-B6FC-E08D-FD7091C5340C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="654050" y="4565650"/>
+          <a:ext cx="7772400" cy="4082348"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>8526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{174207C4-7979-F816-60B9-20212A67D1B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="584200" y="8877300"/>
+          <a:ext cx="7772400" cy="3932826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>87314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>620712</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>139802</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09AE09A1-07A4-C05C-AA33-42410C79CAA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="754062" y="13438189"/>
+          <a:ext cx="7772400" cy="3965676"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -471,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0B820D-ACBF-4001-BDA1-C25CDF10E8CD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
